--- a/WGRDBESstockCoord/format/RCEF_v14.xlsx
+++ b/WGRDBESstockCoord/format/RCEF_v14.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dtudk-my.sharepoint.com/personal/kibi_dtu_dk/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dtudk-my.sharepoint.com/personal/kibi_dtu_dk/Documents/gits/RDBESstockCoord/WGRDBESstockCoord/personal/kibi/format_v14/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="33" documentId="8_{283BF183-CA3E-4A58-BEB1-C22F4DED4A98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C7109EC7-0449-48D9-B8E1-69DB102905B9}"/>
+  <xr:revisionPtr revIDLastSave="35" documentId="8_{283BF183-CA3E-4A58-BEB1-C22F4DED4A98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CE337CF3-AD01-4CB6-B62E-31EF33E96B9A}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="683" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="683" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RCEF" sheetId="1" r:id="rId1"/>
@@ -2131,7 +2131,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -2649,8 +2649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:J20"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="160" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3120,7 +3120,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>66</v>
       </c>
@@ -5757,12 +5757,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
+    <TaxKeywordTaxHTField xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </TaxKeywordTaxHTField>
+    <TaxCatchAllLabel xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5943,21 +5946,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
-    <TaxKeywordTaxHTField xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </TaxKeywordTaxHTField>
-    <TaxCatchAllLabel xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F724DB8-FDC9-4526-B07B-463F4D815618}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9CEB43D0-560F-48CD-B064-47F998E79E6D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5982,11 +5984,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9CEB43D0-560F-48CD-B064-47F998E79E6D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F724DB8-FDC9-4526-B07B-463F4D815618}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>